--- a/excel_files/flash_card_data.xlsx
+++ b/excel_files/flash_card_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="8205" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="19635" windowHeight="8205" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="184">
   <si>
     <t>Front</t>
   </si>
@@ -363,6 +363,9 @@
     <t>Circular lake</t>
   </si>
   <si>
+    <t>images\math_formulas2.png</t>
+  </si>
+  <si>
     <t>Spring body fall</t>
   </si>
   <si>
@@ -373,13 +376,13 @@
 Disk Method</t>
   </si>
   <si>
-    <t>images\math_formulas2.png</t>
-  </si>
-  <si>
     <t>Volume of solid of revolution
 Washer Method</t>
   </si>
   <si>
+    <t>Value of interior angle of a regular polygon</t>
+  </si>
+  <si>
     <t>a triangle where all three sides have different lengths, and consequently, all three angles have different measures</t>
   </si>
   <si>
@@ -446,6 +449,225 @@
   </si>
   <si>
     <t>balance sheet</t>
+  </si>
+  <si>
+    <t>The amount received from the sale of an additional unit of a product is termed as:</t>
+  </si>
+  <si>
+    <t>marginal revenue</t>
+  </si>
+  <si>
+    <t>One-fourth of a great circle:</t>
+  </si>
+  <si>
+    <t>quadrant</t>
+  </si>
+  <si>
+    <t>A formal organization of producers within an industry forming a perfect collision
+purposely formed to increase profit and block newcomers from the industry is termed as:</t>
+  </si>
+  <si>
+    <t>Price leadership</t>
+  </si>
+  <si>
+    <t>“Equal volume of all gases under the same conditions of temperature and pressure
+contain the same number of molecules”. This hypothesis is promptly known as:</t>
+  </si>
+  <si>
+    <t>Avogadro’s hypothesis</t>
+  </si>
+  <si>
+    <t>If the general equation of the conic is
+Ax2 + 2Bxy + Cy2 + Ey + F = 0, and B2 -
+4AC &gt; 0, then the conic is a/an</t>
+  </si>
+  <si>
+    <t>Hyperbola</t>
+  </si>
+  <si>
+    <t>What type of conic has equation of
+Ax2 + Cy2 + Dx + Ey + F = 0?</t>
+  </si>
+  <si>
+    <t>Ellipse</t>
+  </si>
+  <si>
+    <t>A line passing through the focus and
+perpendicular to the directrix of a
+parabola</t>
+  </si>
+  <si>
+    <t>axis of parabola</t>
+  </si>
+  <si>
+    <t>If two linear equation, the x-coefficient of
+the first is equal to the y-coefficient of the
+send and the y-coefficient of the first is
+numerically equal but of opposite sign to the x-coefficient of the second, or vice versa, the lines represented are</t>
+  </si>
+  <si>
+    <t>perpendicular to each other</t>
+  </si>
+  <si>
+    <t>In a linear equation Ax + By + C = 0, if
+B = 0, then the equation has the
+form of x= -C/A. This line is</t>
+  </si>
+  <si>
+    <t>parallel to the y-axis</t>
+  </si>
+  <si>
+    <t>The straight lines 4x – y + 3 = 0 and
+8x – 2y + 6 = 0 are</t>
+  </si>
+  <si>
+    <t>coincident</t>
+  </si>
+  <si>
+    <t>Which of the ff. is the intercept form
+of an equation for straight lines?</t>
+  </si>
+  <si>
+    <t>( x / a ) + ( y / b ) = 1</t>
+  </si>
+  <si>
+    <t>A conic section is curve which is the
+intersection of</t>
+  </si>
+  <si>
+    <t>a cone and a plane</t>
+  </si>
+  <si>
+    <t>If the distance from the center to the
+focus of an ellipse is c, from the center
+to the vertex is a and from the center to
+the directrix is D, its eccentrcity, is</t>
+  </si>
+  <si>
+    <t>c/a</t>
+  </si>
+  <si>
+    <t>The tangents to the parabola at the
+end points of its latus rectum
+intersect</t>
+  </si>
+  <si>
+    <t>at the directrix</t>
+  </si>
+  <si>
+    <t>In general equation of a conic section
+Ax2 + Bxy + Cy2 + Dx + Ey + F = 0, if A
+and C have different signs, then the
+curve is a/an</t>
+  </si>
+  <si>
+    <t>hyperbola</t>
+  </si>
+  <si>
+    <t>If a and b are lengths of semi-major
+and semi-minor axis of an ellipse
+respectively, then what is the length
+of its latus rectum?</t>
+  </si>
+  <si>
+    <t>2b^2/a</t>
+  </si>
+  <si>
+    <t>The eccentricity of a regular
+hyperbola is</t>
+  </si>
+  <si>
+    <t>√̅2</t>
+  </si>
+  <si>
+    <t>A parabola has an eccentricity</t>
+  </si>
+  <si>
+    <t>equal to 1</t>
+  </si>
+  <si>
+    <t>Confocal conics are conics</t>
+  </si>
+  <si>
+    <t>having the same foci</t>
+  </si>
+  <si>
+    <t>A line segment joining two of its
+points and passing through a focus of
+a conic.</t>
+  </si>
+  <si>
+    <t>Focal chord</t>
+  </si>
+  <si>
+    <t>Given the polar equation
+r=3 / (1 + 3cosѲ). This is a graph of a/an</t>
+  </si>
+  <si>
+    <t>The equation r = 4cosѲ is a/an</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>The equation x3 + y3 – 3axy = 0
+represents a</t>
+  </si>
+  <si>
+    <t>Folium of Descartes</t>
+  </si>
+  <si>
+    <t>Curve which is locus of centers of
+curvature of another curve envelope
+of all its normal</t>
+  </si>
+  <si>
+    <t>Evolute</t>
+  </si>
+  <si>
+    <t>Locus of the ultimate intersections or
+curves in a system of curves</t>
+  </si>
+  <si>
+    <t>Envelope</t>
+  </si>
+  <si>
+    <t>The locus of a point such that its
+radius vector is proportional to its
+vectorial angle</t>
+  </si>
+  <si>
+    <t>Spiral of Archimedes</t>
+  </si>
+  <si>
+    <t>The locus of a point which rolls on a
+straight line ( x-axis)</t>
+  </si>
+  <si>
+    <t>Trochoid</t>
+  </si>
+  <si>
+    <t>The graph of the equation r = aco2Ѳ
+is a</t>
+  </si>
+  <si>
+    <t>rosette</t>
+  </si>
+  <si>
+    <t>The equation r = a(1 - cosѲ) is a
+polar equation of</t>
+  </si>
+  <si>
+    <t>cardiods</t>
+  </si>
+  <si>
+    <t>The equation r^2 = a^2 cosѲ is a</t>
+  </si>
+  <si>
+    <t>lemniscates</t>
+  </si>
+  <si>
+    <t>The equation r = a cosѲ is a</t>
   </si>
 </sst>
 </file>
@@ -458,7 +680,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +698,12 @@
       <sz val="11"/>
       <color rgb="FF001D35"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -943,137 +1171,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1095,10 +1323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1652,13 +1877,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="25.7142857142857" style="7" customWidth="1"/>
-    <col min="3" max="3" width="43.8571428571429" style="7" customWidth="1"/>
-    <col min="4" max="4" width="25.7142857142857" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="10.2857142857143" style="7"/>
+    <col min="1" max="2" width="25.7142857142857" style="5" customWidth="1"/>
+    <col min="3" max="3" width="43.8571428571429" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.7142857142857" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="10.2857142857143" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:4">
+    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1672,27 +1897,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" s="7" customFormat="1" customHeight="1" spans="1:4">
+    <row r="4" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1702,8 +1927,8 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A5" s="9" t="s">
+    <row r="5" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2"/>
@@ -1712,8 +1937,8 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A6" s="9" t="s">
+    <row r="6" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2"/>
@@ -1722,8 +1947,8 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
@@ -1732,18 +1957,18 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A8" s="9" t="s">
+    <row r="8" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A9" s="9" t="s">
+    <row r="9" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="2"/>
@@ -1752,8 +1977,8 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A10" s="9" t="s">
+    <row r="10" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="2"/>
@@ -1762,8 +1987,8 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A11" s="9" t="s">
+    <row r="11" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="2"/>
@@ -1772,8 +1997,8 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A12" s="9" t="s">
+    <row r="12" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2"/>
@@ -1782,7 +2007,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" s="7" customFormat="1" customHeight="1" spans="1:4">
+    <row r="13" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1792,47 +2017,47 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A14" s="9" t="s">
+    <row r="14" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A15" s="9" t="s">
+    <row r="15" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A16" s="9" t="s">
+    <row r="16" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A16" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A17" s="9" t="s">
+    <row r="17" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A17" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" s="7" customFormat="1" customHeight="1" spans="1:4">
+    <row r="18" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1859,173 +2084,173 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="25" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="4" width="25.7142857142857" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="10.2857142857143" style="7"/>
+    <col min="1" max="4" width="25.7142857142857" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="10.2857142857143" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A7" s="7" t="s">
+    <row r="7" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A8" s="7" t="s">
+    <row r="8" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A9" s="8" t="s">
+    <row r="9" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A11" s="7" t="s">
+    <row r="11" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A12" s="7" t="s">
+    <row r="12" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A13" s="7" t="s">
+    <row r="13" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A14" s="7" t="s">
+    <row r="14" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A15" s="7" t="s">
+    <row r="15" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A16" s="7" t="s">
+    <row r="16" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A17" s="7" t="s">
+    <row r="17" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A18" s="7" t="s">
+    <row r="18" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A19" s="7" t="s">
+    <row r="19" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A20" s="8" t="s">
+    <row r="20" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2038,10 +2263,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="25" customHeight="1" outlineLevelCol="3"/>
@@ -2051,201 +2276,257 @@
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>77</v>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="22" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>77</v>
+      <c r="A22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
       <c r="A23" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="5" t="s">
         <v>99</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
       <c r="A24" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>99</v>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" ht="42" customHeight="1" spans="1:4">
+      <c r="A25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2257,10 +2538,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2287,90 +2568,338 @@
     </row>
     <row r="2" ht="72" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" ht="108" customHeight="1" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" ht="85" customHeight="1" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/flash_card_data.xlsx
+++ b/excel_files/flash_card_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="233">
   <si>
     <t xml:space="preserve">Front</t>
   </si>
@@ -180,6 +180,12 @@
     <t xml:space="preserve">6.022 x 10^23</t>
   </si>
   <si>
+    <t xml:space="preserve">percentage of oxygen in air by mass </t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage of oxygen in air by volume</t>
+  </si>
+  <si>
     <t xml:space="preserve">pipe formulas</t>
   </si>
   <si>
@@ -296,6 +302,12 @@
   <si>
     <t xml:space="preserve">R = F + 460 
  K = C + 273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kmol air to kg air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.97 kg/kmol</t>
   </si>
   <si>
     <t xml:space="preserve">Mass of atom</t>
@@ -704,6 +716,30 @@
     <t xml:space="preserve">decrease</t>
   </si>
   <si>
+    <t xml:space="preserve">A type of turbine used for driving pumps, fans, and other auxiliaries in power plant commonly operate at exhaust pressures approximating atmospheric. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back pressure turbine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The constant volume and constant pressure specific heats are identical for </t>
+  </si>
+  <si>
+    <t xml:space="preserve">incompressible substance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economizer in a water tube boiler is heated by: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">outgoing flue gas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Stirling process the heat is added during </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isothermal process </t>
+  </si>
+  <si>
     <t xml:space="preserve">The angle made by the helix of the thread (in a straight head) at the pitch diameter with a plabe perpendicular to the axis is called</t>
   </si>
   <si>
@@ -763,16 +799,44 @@
   </si>
   <si>
     <t xml:space="preserve">backlash </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rule of thumb, the speed limit of flywheel rim should be 6000 fpm for castviron material and for cast steel flywheel rim at _____meters/min </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The arc of action to circular pitch or length of action to base pitch. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact ratio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cutting tool used the shaper are similar to turning tools of ______machine. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">planer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The blades for hacksaw have number of teeth range of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-32 tooth/inch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lathe carriage part that bridge across the bed to carry the cross slide and tool rest. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">compound rest </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,6 +858,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -828,6 +898,7 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -872,7 +943,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -882,10 +953,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -893,35 +976,39 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1174,10 +1261,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="50" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1203,21 +1290,21 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
@@ -1233,7 +1320,7 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2"/>
@@ -1243,7 +1330,7 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2"/>
@@ -1253,7 +1340,7 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
@@ -1263,17 +1350,17 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="2"/>
@@ -1283,7 +1370,7 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="2"/>
@@ -1293,7 +1380,7 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="2"/>
@@ -1303,7 +1390,7 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2"/>
@@ -1323,41 +1410,41 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="2"/>
@@ -1371,6 +1458,32 @@
         <v>37</v>
       </c>
       <c r="D18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1388,10 +1501,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1416,154 +1529,162 @@
     </row>
     <row r="2" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>53</v>
+      <c r="A9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>75</v>
+      <c r="A20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1595,257 +1716,257 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>77</v>
+      <c r="A2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>77</v>
+      <c r="A3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>77</v>
+      <c r="A4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>77</v>
+      <c r="A5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>77</v>
+      <c r="A7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>77</v>
+      <c r="A8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>77</v>
+      <c r="A9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>77</v>
+      <c r="A10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>77</v>
+      <c r="A11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>77</v>
+      <c r="A12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>77</v>
+      <c r="A13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>77</v>
+      <c r="A14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>77</v>
+      <c r="A15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>77</v>
+      <c r="A16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>77</v>
+      <c r="A17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>77</v>
+      <c r="A18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>77</v>
+      <c r="A19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>96</v>
+      <c r="A20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
-        <v>96</v>
+      <c r="A21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>96</v>
+      <c r="A22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>96</v>
+      <c r="A23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>96</v>
+      <c r="A25" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1872,459 +1993,459 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="50" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="39.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="39.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="25.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="6" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="4" width="25.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="4" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>103</v>
+      <c r="A2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>105</v>
+      <c r="A3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>107</v>
+      <c r="A4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>109</v>
+      <c r="A5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>111</v>
+      <c r="A6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>113</v>
+      <c r="A7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>115</v>
+      <c r="A8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>117</v>
+      <c r="A9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>119</v>
+      <c r="A10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>121</v>
+      <c r="A11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>123</v>
+      <c r="A12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>125</v>
+      <c r="A13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>127</v>
+      <c r="A14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>129</v>
+      <c r="A15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>131</v>
+      <c r="A16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>133</v>
+      <c r="A17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>129</v>
+      <c r="A18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>136</v>
+      <c r="A19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>138</v>
+      <c r="A20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>140</v>
+      <c r="A21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>142</v>
+      <c r="A22" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>144</v>
+      <c r="A23" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>146</v>
+      <c r="A24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>148</v>
+      <c r="A25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>150</v>
+      <c r="A26" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>152</v>
+      <c r="A27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>154</v>
+      <c r="A28" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>156</v>
+      <c r="A29" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>158</v>
+      <c r="A30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>160</v>
+      <c r="A31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>162</v>
+      <c r="A32" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>164</v>
+      <c r="A33" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>166</v>
+      <c r="A34" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>168</v>
+      <c r="A35" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>170</v>
+      <c r="A36" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>172</v>
+      <c r="A37" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>174</v>
+      <c r="A38" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>166</v>
+      <c r="A39" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>177</v>
+      <c r="A40" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>179</v>
+      <c r="A41" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>181</v>
+      <c r="A42" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>183</v>
+      <c r="A43" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2356,63 +2477,95 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="144" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="72" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="47.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="9" width="38.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="9" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="47.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="12" width="38.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="12" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+    <row r="2" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+    <row r="3" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2431,126 +2584,166 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="144" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="108" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="11" width="25.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="11" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="4" width="25.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="4" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="12" t="n">
+    <row r="2" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="16" t="n">
         <v>3.75</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="12" t="n">
+    <row r="6" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="16" t="n">
         <v>6000</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="12" t="n">
+    <row r="7" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="16" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="12" t="n">
+    <row r="12" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="16" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>211</v>
+    <row r="13" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="16" t="n">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/flash_card_data.xlsx
+++ b/excel_files/flash_card_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="267">
   <si>
     <t xml:space="preserve">Front</t>
   </si>
@@ -186,10 +186,10 @@
     <t xml:space="preserve">percentage of oxygen in air by volume</t>
   </si>
   <si>
-    <t xml:space="preserve">pipe formulas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">images\pipe_formulas.png</t>
+    <t xml:space="preserve">1 ft^3 = qtz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ft^3 = 30 qtz</t>
   </si>
   <si>
     <t xml:space="preserve">1 TOR = KW = BTU/hr</t>
@@ -699,6 +699,84 @@
   </si>
   <si>
     <t xml:space="preserve">equilateral triangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the submerged plane surface, the point on the surface where the resultant force acts is called the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">center of pressure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a compression ignition engine, the detonation occurs near the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">beginning of combustion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a spark ignition engine, the detonation occurs near the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">end of combustion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of solid injection that use single pump supplies fuel under high pressure to a fuel header. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common rail injection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil is atomized either by air blast or pressure jet at about </t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 bar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of turbine used up to 300 m head. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deriaz turbine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In thermal power plant, induced draft fans are located at the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">foot of the stack </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In thermal power plant, forced draft fans are installed at the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inlet of the preheater </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following is NOT a material used for thermoelectric elements. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinc telluride </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs only single pump regardless of number of heaters. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">closed heater </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This law states that the volume of a gas is directly proportional to the number of moles (amount) of gas present, at constant temperature and pressure. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avogadro's Law </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This law states that the volume of a gas is directly proportional to its absolute temperature (measured in Kelvin), at constant pressure.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles's Law </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This law states that the volume of a gas is inversely proportional to its pressure, at constant temperature. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boyle's Law </t>
   </si>
   <si>
     <t xml:space="preserve">Which of the following types of coal generally has the highest volatile matter?
@@ -860,7 +938,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,17 +969,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -923,6 +1002,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -967,7 +1052,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -996,16 +1081,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1024,12 +1109,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1283,7 +1372,7 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1523,8 +1612,8 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1551,7 +1640,7 @@
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1604,10 +1693,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1692,10 +1781,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1725,7 +1814,7 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1736,256 +1825,256 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2007,7 +2096,7 @@
   </sheetPr>
   <dimension ref="A1:XFD50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2037,41 +2126,44 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D2" s="2"/>
+      <c r="XFB2" s="1"/>
+      <c r="XFC2" s="1"/>
+      <c r="XFD2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D5" s="10"/>
@@ -2123,9 +2215,6 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="XFB9" s="1"/>
-      <c r="XFC9" s="1"/>
-      <c r="XFD9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -2161,6 +2250,9 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
+      <c r="XFB12" s="4"/>
+      <c r="XFC12" s="4"/>
+      <c r="XFD12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
@@ -2551,10 +2643,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="72" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2565,82 +2657,228 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="14" t="s">
         <v>197</v>
       </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="14" t="s">
         <v>199</v>
       </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="14" t="s">
         <v>201</v>
       </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="14" t="s">
         <v>203</v>
       </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="14" t="s">
         <v>205</v>
       </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="14" t="s">
         <v>207</v>
       </c>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="14" t="s">
         <v>209</v>
       </c>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="14" t="s">
         <v>211</v>
       </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2660,7 +2898,7 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2671,46 +2909,46 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>3.75</v>
@@ -2718,7 +2956,7 @@
     </row>
     <row r="6" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>6000</v>
@@ -2726,39 +2964,39 @@
     </row>
     <row r="7" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>2</v>
@@ -2766,7 +3004,7 @@
     </row>
     <row r="12" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>40</v>
@@ -2774,15 +3012,15 @@
     </row>
     <row r="13" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>3050</v>
@@ -2790,34 +3028,34 @@
     </row>
     <row r="15" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/flash_card_data.xlsx
+++ b/excel_files/flash_card_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="293">
   <si>
     <t xml:space="preserve">Front</t>
   </si>
@@ -701,6 +701,36 @@
     <t xml:space="preserve">equilateral triangle</t>
   </si>
   <si>
+    <t xml:space="preserve">A component installed a refrigeration system to ensure that no liquid enters the compressor and subcooled the liquid from condenser to prevent bubbles of vapor from impending the flow of refrigerant through expansion valve is called: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">liquid-to-suction heat exchanger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aircraft gas turbines operate at higher pressure ratio typically between </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 to 25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Stirling process the heat is added during </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isothermal process </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stirling cycle uses a __________ as working fluids. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">compressible fluids </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economizer in a water tube boiler is heated by: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">outgoing flue gas </t>
+  </si>
+  <si>
     <t xml:space="preserve">For the submerged plane surface, the point on the surface where the resultant force acts is called the </t>
   </si>
   <si>
@@ -830,18 +860,6 @@
     <t xml:space="preserve">incompressible substance </t>
   </si>
   <si>
-    <t xml:space="preserve">Economizer in a water tube boiler is heated by: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">outgoing flue gas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Stirling process the heat is added during </t>
-  </si>
-  <si>
-    <t xml:space="preserve">isothermal process </t>
-  </si>
-  <si>
     <t xml:space="preserve">The angle made by the helix of the thread (in a straight head) at the pitch diameter with a plabe perpendicular to the axis is called</t>
   </si>
   <si>
@@ -928,6 +946,66 @@
   </si>
   <si>
     <t xml:space="preserve">compound rest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also called eccentrically loaded bearing is </t>
+  </si>
+  <si>
+    <t xml:space="preserve">offset bearings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The nominal helix angles in helical gears is recommended in the range of _____degrees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 to 25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stress relieving is also _______ for the purpose of reducing the internal stresses of steel material/metal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">normalizing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ridge of uniform section in the form of a helix cut around the circumference of a cylinder and advancing along the axis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">screw threads </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martensite(stainless steel) contains 4 to 26% Cr and a maximum of ______% nickel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In general, alloys with high nickel content retains toughness to quite low temperatures up to _____pF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formed by the interaction of the adjacent flanks of adjacent threads when extended is called </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sharp crest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">forces means when their lines of action can be extended to meet to one point. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">concurrent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molybdenum-chromium-nickel steel deisgnation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAE 43XX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shear modulus is also </t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulus of rigidity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top surface joining two sides of thread in screw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crest </t>
   </si>
 </sst>
 </file>
@@ -1109,15 +1187,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1373,7 +1451,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="2" sqref="C31 B31 C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="50" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1613,7 +1691,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="2" sqref="C31 B31 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1815,7 +1893,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="2" sqref="C31 B31 D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2094,10 +2172,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD50"/>
+  <dimension ref="A1:XFD1047"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="2" sqref="C31 B31 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="50" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2108,10 +2186,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="20.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="4" width="25.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="4" width="38.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="4" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16381" min="14" style="4" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16382" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2125,7 +2204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>106</v>
       </c>
@@ -2134,11 +2213,8 @@
         <v>107</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="XFB2" s="1"/>
-      <c r="XFC2" s="1"/>
-      <c r="XFD2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>108</v>
       </c>
@@ -2148,7 +2224,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>110</v>
       </c>
@@ -2158,7 +2234,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>112</v>
       </c>
@@ -2168,10 +2244,11 @@
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
         <v>115</v>
       </c>
@@ -2180,10 +2257,11 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2192,10 +2270,11 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
         <v>119</v>
       </c>
@@ -2204,10 +2283,11 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="4" customFormat="true" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="4" t="s">
         <v>121</v>
       </c>
@@ -2216,10 +2296,11 @@
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>122</v>
       </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="4" t="s">
         <v>123</v>
       </c>
@@ -2228,10 +2309,11 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="4" t="s">
         <v>125</v>
       </c>
@@ -2254,10 +2336,11 @@
       <c r="XFC12" s="4"/>
       <c r="XFD12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="4" t="s">
         <v>129</v>
       </c>
@@ -2265,10 +2348,11 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>130</v>
       </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="4" t="s">
         <v>131</v>
       </c>
@@ -2276,10 +2360,11 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>132</v>
       </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="4" t="s">
         <v>133</v>
       </c>
@@ -2287,10 +2372,11 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
         <v>135</v>
       </c>
@@ -2298,18 +2384,20 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>136</v>
       </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>138</v>
       </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="4" t="s">
         <v>139</v>
       </c>
@@ -2317,10 +2405,11 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="4" t="s">
         <v>141</v>
       </c>
@@ -2328,10 +2417,11 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="4" t="s">
         <v>143</v>
       </c>
@@ -2339,10 +2429,11 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>144</v>
       </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="4" t="s">
         <v>145</v>
       </c>
@@ -2350,10 +2441,11 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>146</v>
       </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="4" t="s">
         <v>147</v>
       </c>
@@ -2361,10 +2453,11 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>148</v>
       </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="4" t="s">
         <v>149</v>
       </c>
@@ -2372,10 +2465,11 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>150</v>
       </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="4" t="s">
         <v>147</v>
       </c>
@@ -2383,10 +2477,11 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" s="4" customFormat="true" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>151</v>
       </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="4" t="s">
         <v>152</v>
       </c>
@@ -2394,10 +2489,11 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" s="4" customFormat="true" ht="85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>153</v>
       </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="4" t="s">
         <v>154</v>
       </c>
@@ -2405,10 +2501,11 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="4" t="s">
         <v>156</v>
       </c>
@@ -2416,10 +2513,11 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>157</v>
       </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="4" t="s">
         <v>158</v>
       </c>
@@ -2427,10 +2525,11 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>159</v>
       </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="4" t="s">
         <v>160</v>
       </c>
@@ -2438,10 +2537,11 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>161</v>
       </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="4" t="s">
         <v>162</v>
       </c>
@@ -2449,10 +2549,11 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="4" t="s">
         <v>164</v>
       </c>
@@ -2460,10 +2561,11 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="4" t="s">
         <v>166</v>
       </c>
@@ -2471,10 +2573,11 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>167</v>
       </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="4" t="s">
         <v>168</v>
       </c>
@@ -2482,10 +2585,11 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>169</v>
       </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="4" t="s">
         <v>170</v>
       </c>
@@ -2493,10 +2597,11 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>171</v>
       </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="4" t="s">
         <v>172</v>
       </c>
@@ -2504,10 +2609,11 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="4" t="s">
         <v>174</v>
       </c>
@@ -2515,10 +2621,11 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>175</v>
       </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="4" t="s">
         <v>176</v>
       </c>
@@ -2526,10 +2633,11 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>177</v>
       </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="4" t="s">
         <v>178</v>
       </c>
@@ -2537,10 +2645,11 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>179</v>
       </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="4" t="s">
         <v>180</v>
       </c>
@@ -2548,10 +2657,11 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>181</v>
       </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="4" t="s">
         <v>182</v>
       </c>
@@ -2559,73 +2669,3074 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>183</v>
       </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>185</v>
       </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>187</v>
       </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>188</v>
       </c>
+      <c r="B44" s="1"/>
       <c r="C44" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
         <v>190</v>
       </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="11" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
         <v>192</v>
       </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>194</v>
       </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
+    </row>
+    <row r="51" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B173" s="1"/>
+    </row>
+    <row r="174" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B176" s="1"/>
+    </row>
+    <row r="177" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B179" s="1"/>
+    </row>
+    <row r="180" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B182" s="1"/>
+    </row>
+    <row r="183" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B183" s="1"/>
+    </row>
+    <row r="184" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B185" s="1"/>
+    </row>
+    <row r="186" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B188" s="1"/>
+    </row>
+    <row r="189" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B189" s="1"/>
+    </row>
+    <row r="190" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B191" s="1"/>
+    </row>
+    <row r="192" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B194" s="1"/>
+    </row>
+    <row r="195" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B196" s="1"/>
+    </row>
+    <row r="197" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B197" s="1"/>
+    </row>
+    <row r="198" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B198" s="1"/>
+    </row>
+    <row r="199" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B200" s="1"/>
+    </row>
+    <row r="201" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B201" s="1"/>
+    </row>
+    <row r="202" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B209" s="1"/>
+    </row>
+    <row r="210" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B210" s="1"/>
+    </row>
+    <row r="211" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B213" s="1"/>
+    </row>
+    <row r="214" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B214" s="1"/>
+    </row>
+    <row r="215" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B215" s="1"/>
+    </row>
+    <row r="216" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B216" s="1"/>
+    </row>
+    <row r="217" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B217" s="1"/>
+    </row>
+    <row r="218" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B218" s="1"/>
+    </row>
+    <row r="219" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B219" s="1"/>
+    </row>
+    <row r="220" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B220" s="1"/>
+    </row>
+    <row r="221" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B221" s="1"/>
+    </row>
+    <row r="222" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B222" s="1"/>
+    </row>
+    <row r="223" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B223" s="1"/>
+    </row>
+    <row r="224" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B224" s="1"/>
+    </row>
+    <row r="225" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B225" s="1"/>
+    </row>
+    <row r="226" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B226" s="1"/>
+    </row>
+    <row r="227" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B227" s="1"/>
+    </row>
+    <row r="228" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B228" s="1"/>
+    </row>
+    <row r="229" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B229" s="1"/>
+    </row>
+    <row r="230" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B230" s="1"/>
+    </row>
+    <row r="231" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B231" s="1"/>
+    </row>
+    <row r="232" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B232" s="1"/>
+    </row>
+    <row r="233" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B233" s="1"/>
+    </row>
+    <row r="234" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B234" s="1"/>
+    </row>
+    <row r="235" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B235" s="1"/>
+    </row>
+    <row r="236" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B236" s="1"/>
+    </row>
+    <row r="237" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B237" s="1"/>
+    </row>
+    <row r="238" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B238" s="1"/>
+    </row>
+    <row r="239" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B239" s="1"/>
+    </row>
+    <row r="240" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B240" s="1"/>
+    </row>
+    <row r="241" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B241" s="1"/>
+    </row>
+    <row r="242" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B242" s="1"/>
+    </row>
+    <row r="243" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B243" s="1"/>
+    </row>
+    <row r="244" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B244" s="1"/>
+    </row>
+    <row r="245" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B245" s="1"/>
+    </row>
+    <row r="246" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B246" s="1"/>
+    </row>
+    <row r="247" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B247" s="1"/>
+    </row>
+    <row r="248" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B248" s="1"/>
+    </row>
+    <row r="249" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B249" s="1"/>
+    </row>
+    <row r="250" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B250" s="1"/>
+    </row>
+    <row r="251" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B251" s="1"/>
+    </row>
+    <row r="252" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B252" s="1"/>
+    </row>
+    <row r="253" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B253" s="1"/>
+    </row>
+    <row r="254" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B254" s="1"/>
+    </row>
+    <row r="255" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B255" s="1"/>
+    </row>
+    <row r="256" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B256" s="1"/>
+    </row>
+    <row r="257" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B257" s="1"/>
+    </row>
+    <row r="258" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B258" s="1"/>
+    </row>
+    <row r="259" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B259" s="1"/>
+    </row>
+    <row r="260" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B260" s="1"/>
+    </row>
+    <row r="261" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B261" s="1"/>
+    </row>
+    <row r="262" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B262" s="1"/>
+    </row>
+    <row r="263" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B263" s="1"/>
+    </row>
+    <row r="264" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B264" s="1"/>
+    </row>
+    <row r="265" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B265" s="1"/>
+    </row>
+    <row r="266" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B266" s="1"/>
+    </row>
+    <row r="267" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B267" s="1"/>
+    </row>
+    <row r="268" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B268" s="1"/>
+    </row>
+    <row r="269" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B269" s="1"/>
+    </row>
+    <row r="270" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B270" s="1"/>
+    </row>
+    <row r="271" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B271" s="1"/>
+    </row>
+    <row r="272" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B272" s="1"/>
+    </row>
+    <row r="273" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B273" s="1"/>
+    </row>
+    <row r="274" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B274" s="1"/>
+    </row>
+    <row r="275" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B275" s="1"/>
+    </row>
+    <row r="276" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B276" s="1"/>
+    </row>
+    <row r="277" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B277" s="1"/>
+    </row>
+    <row r="278" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B278" s="1"/>
+    </row>
+    <row r="279" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B279" s="1"/>
+    </row>
+    <row r="280" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B280" s="1"/>
+    </row>
+    <row r="281" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B281" s="1"/>
+    </row>
+    <row r="282" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B282" s="1"/>
+    </row>
+    <row r="283" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B283" s="1"/>
+    </row>
+    <row r="284" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B284" s="1"/>
+    </row>
+    <row r="285" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B285" s="1"/>
+    </row>
+    <row r="286" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B286" s="1"/>
+    </row>
+    <row r="287" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B287" s="1"/>
+    </row>
+    <row r="288" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B288" s="1"/>
+    </row>
+    <row r="289" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B289" s="1"/>
+    </row>
+    <row r="290" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B290" s="1"/>
+    </row>
+    <row r="291" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B291" s="1"/>
+    </row>
+    <row r="292" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B292" s="1"/>
+    </row>
+    <row r="293" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B293" s="1"/>
+    </row>
+    <row r="294" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B294" s="1"/>
+    </row>
+    <row r="295" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B295" s="1"/>
+    </row>
+    <row r="296" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B296" s="1"/>
+    </row>
+    <row r="297" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B297" s="1"/>
+    </row>
+    <row r="298" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B298" s="1"/>
+    </row>
+    <row r="299" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B299" s="1"/>
+    </row>
+    <row r="300" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B300" s="1"/>
+    </row>
+    <row r="301" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B301" s="1"/>
+    </row>
+    <row r="302" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B302" s="1"/>
+    </row>
+    <row r="303" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B303" s="1"/>
+    </row>
+    <row r="304" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B304" s="1"/>
+    </row>
+    <row r="305" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B305" s="1"/>
+    </row>
+    <row r="306" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B306" s="1"/>
+    </row>
+    <row r="307" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B307" s="1"/>
+    </row>
+    <row r="308" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B308" s="1"/>
+    </row>
+    <row r="309" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B309" s="1"/>
+    </row>
+    <row r="310" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B310" s="1"/>
+    </row>
+    <row r="311" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B311" s="1"/>
+    </row>
+    <row r="312" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B312" s="1"/>
+    </row>
+    <row r="313" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B313" s="1"/>
+    </row>
+    <row r="314" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B314" s="1"/>
+    </row>
+    <row r="315" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B315" s="1"/>
+    </row>
+    <row r="316" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B316" s="1"/>
+    </row>
+    <row r="317" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B317" s="1"/>
+    </row>
+    <row r="318" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B318" s="1"/>
+    </row>
+    <row r="319" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B319" s="1"/>
+    </row>
+    <row r="320" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B320" s="1"/>
+    </row>
+    <row r="321" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B321" s="1"/>
+    </row>
+    <row r="322" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B322" s="1"/>
+    </row>
+    <row r="323" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B323" s="1"/>
+    </row>
+    <row r="324" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B324" s="1"/>
+    </row>
+    <row r="325" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B325" s="1"/>
+    </row>
+    <row r="326" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B326" s="1"/>
+    </row>
+    <row r="327" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B327" s="1"/>
+    </row>
+    <row r="328" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B328" s="1"/>
+    </row>
+    <row r="329" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B329" s="1"/>
+    </row>
+    <row r="330" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B330" s="1"/>
+    </row>
+    <row r="331" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B331" s="1"/>
+    </row>
+    <row r="332" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B332" s="1"/>
+    </row>
+    <row r="333" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B333" s="1"/>
+    </row>
+    <row r="334" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B334" s="1"/>
+    </row>
+    <row r="335" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B335" s="1"/>
+    </row>
+    <row r="336" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B336" s="1"/>
+    </row>
+    <row r="337" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B337" s="1"/>
+    </row>
+    <row r="338" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B338" s="1"/>
+    </row>
+    <row r="339" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B339" s="1"/>
+    </row>
+    <row r="340" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B340" s="1"/>
+    </row>
+    <row r="341" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B341" s="1"/>
+    </row>
+    <row r="342" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B342" s="1"/>
+    </row>
+    <row r="343" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B343" s="1"/>
+    </row>
+    <row r="344" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B344" s="1"/>
+    </row>
+    <row r="345" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B345" s="1"/>
+    </row>
+    <row r="346" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B346" s="1"/>
+    </row>
+    <row r="347" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B347" s="1"/>
+    </row>
+    <row r="348" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B348" s="1"/>
+    </row>
+    <row r="349" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B349" s="1"/>
+    </row>
+    <row r="350" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B350" s="1"/>
+    </row>
+    <row r="351" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B351" s="1"/>
+    </row>
+    <row r="352" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B352" s="1"/>
+    </row>
+    <row r="353" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B353" s="1"/>
+    </row>
+    <row r="354" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B354" s="1"/>
+    </row>
+    <row r="355" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B355" s="1"/>
+    </row>
+    <row r="356" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B356" s="1"/>
+    </row>
+    <row r="357" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B357" s="1"/>
+    </row>
+    <row r="358" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B358" s="1"/>
+    </row>
+    <row r="359" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B359" s="1"/>
+    </row>
+    <row r="360" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B360" s="1"/>
+    </row>
+    <row r="361" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B361" s="1"/>
+    </row>
+    <row r="362" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B362" s="1"/>
+    </row>
+    <row r="363" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B363" s="1"/>
+    </row>
+    <row r="364" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B364" s="1"/>
+    </row>
+    <row r="365" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B365" s="1"/>
+    </row>
+    <row r="366" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B366" s="1"/>
+    </row>
+    <row r="367" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B367" s="1"/>
+    </row>
+    <row r="368" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B368" s="1"/>
+    </row>
+    <row r="369" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B369" s="1"/>
+    </row>
+    <row r="370" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B370" s="1"/>
+    </row>
+    <row r="371" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B371" s="1"/>
+    </row>
+    <row r="372" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B372" s="1"/>
+    </row>
+    <row r="373" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B373" s="1"/>
+    </row>
+    <row r="374" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B374" s="1"/>
+    </row>
+    <row r="375" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B375" s="1"/>
+    </row>
+    <row r="376" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B376" s="1"/>
+    </row>
+    <row r="377" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B377" s="1"/>
+    </row>
+    <row r="378" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B378" s="1"/>
+    </row>
+    <row r="379" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B379" s="1"/>
+    </row>
+    <row r="380" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B380" s="1"/>
+    </row>
+    <row r="381" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B381" s="1"/>
+    </row>
+    <row r="382" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B382" s="1"/>
+    </row>
+    <row r="383" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B383" s="1"/>
+    </row>
+    <row r="384" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B384" s="1"/>
+    </row>
+    <row r="385" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B385" s="1"/>
+    </row>
+    <row r="386" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B386" s="1"/>
+    </row>
+    <row r="387" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B387" s="1"/>
+    </row>
+    <row r="388" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B388" s="1"/>
+    </row>
+    <row r="389" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B389" s="1"/>
+    </row>
+    <row r="390" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B390" s="1"/>
+    </row>
+    <row r="391" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B391" s="1"/>
+    </row>
+    <row r="392" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B392" s="1"/>
+    </row>
+    <row r="393" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B393" s="1"/>
+    </row>
+    <row r="394" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B394" s="1"/>
+    </row>
+    <row r="395" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B395" s="1"/>
+    </row>
+    <row r="396" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B396" s="1"/>
+    </row>
+    <row r="397" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B397" s="1"/>
+    </row>
+    <row r="398" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B398" s="1"/>
+    </row>
+    <row r="399" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B399" s="1"/>
+    </row>
+    <row r="400" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B400" s="1"/>
+    </row>
+    <row r="401" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B401" s="1"/>
+    </row>
+    <row r="402" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B402" s="1"/>
+    </row>
+    <row r="403" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B403" s="1"/>
+    </row>
+    <row r="404" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B404" s="1"/>
+    </row>
+    <row r="405" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B405" s="1"/>
+    </row>
+    <row r="406" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B406" s="1"/>
+    </row>
+    <row r="407" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B407" s="1"/>
+    </row>
+    <row r="408" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B408" s="1"/>
+    </row>
+    <row r="409" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B409" s="1"/>
+    </row>
+    <row r="410" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B410" s="1"/>
+    </row>
+    <row r="411" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B411" s="1"/>
+    </row>
+    <row r="412" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B412" s="1"/>
+    </row>
+    <row r="413" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B413" s="1"/>
+    </row>
+    <row r="414" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B414" s="1"/>
+    </row>
+    <row r="415" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B415" s="1"/>
+    </row>
+    <row r="416" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B416" s="1"/>
+    </row>
+    <row r="417" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B417" s="1"/>
+    </row>
+    <row r="418" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B418" s="1"/>
+    </row>
+    <row r="419" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B419" s="1"/>
+    </row>
+    <row r="420" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B420" s="1"/>
+    </row>
+    <row r="421" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B421" s="1"/>
+    </row>
+    <row r="422" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B422" s="1"/>
+    </row>
+    <row r="423" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B423" s="1"/>
+    </row>
+    <row r="424" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B424" s="1"/>
+    </row>
+    <row r="425" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B425" s="1"/>
+    </row>
+    <row r="426" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B426" s="1"/>
+    </row>
+    <row r="427" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B427" s="1"/>
+    </row>
+    <row r="428" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B428" s="1"/>
+    </row>
+    <row r="429" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B429" s="1"/>
+    </row>
+    <row r="430" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B430" s="1"/>
+    </row>
+    <row r="431" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B431" s="1"/>
+    </row>
+    <row r="432" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B432" s="1"/>
+    </row>
+    <row r="433" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B433" s="1"/>
+    </row>
+    <row r="434" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B434" s="1"/>
+    </row>
+    <row r="435" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B435" s="1"/>
+    </row>
+    <row r="436" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B436" s="1"/>
+    </row>
+    <row r="437" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B437" s="1"/>
+    </row>
+    <row r="438" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B438" s="1"/>
+    </row>
+    <row r="439" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B439" s="1"/>
+    </row>
+    <row r="440" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B440" s="1"/>
+    </row>
+    <row r="441" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B441" s="1"/>
+    </row>
+    <row r="442" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B442" s="1"/>
+    </row>
+    <row r="443" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B443" s="1"/>
+    </row>
+    <row r="444" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B444" s="1"/>
+    </row>
+    <row r="445" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B445" s="1"/>
+    </row>
+    <row r="446" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B446" s="1"/>
+    </row>
+    <row r="447" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B447" s="1"/>
+    </row>
+    <row r="448" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B448" s="1"/>
+    </row>
+    <row r="449" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B449" s="1"/>
+    </row>
+    <row r="450" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B450" s="1"/>
+    </row>
+    <row r="451" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B451" s="1"/>
+    </row>
+    <row r="452" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B452" s="1"/>
+    </row>
+    <row r="453" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B453" s="1"/>
+    </row>
+    <row r="454" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B454" s="1"/>
+    </row>
+    <row r="455" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B455" s="1"/>
+    </row>
+    <row r="456" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B456" s="1"/>
+    </row>
+    <row r="457" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B457" s="1"/>
+    </row>
+    <row r="458" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B458" s="1"/>
+    </row>
+    <row r="459" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B459" s="1"/>
+    </row>
+    <row r="460" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B460" s="1"/>
+    </row>
+    <row r="461" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B461" s="1"/>
+    </row>
+    <row r="462" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B462" s="1"/>
+    </row>
+    <row r="463" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B463" s="1"/>
+    </row>
+    <row r="464" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B464" s="1"/>
+    </row>
+    <row r="465" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B465" s="1"/>
+    </row>
+    <row r="466" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B466" s="1"/>
+    </row>
+    <row r="467" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B467" s="1"/>
+    </row>
+    <row r="468" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B468" s="1"/>
+    </row>
+    <row r="469" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B469" s="1"/>
+    </row>
+    <row r="470" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B470" s="1"/>
+    </row>
+    <row r="471" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B471" s="1"/>
+    </row>
+    <row r="472" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B472" s="1"/>
+    </row>
+    <row r="473" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B473" s="1"/>
+    </row>
+    <row r="474" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B474" s="1"/>
+    </row>
+    <row r="475" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B475" s="1"/>
+    </row>
+    <row r="476" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B476" s="1"/>
+    </row>
+    <row r="477" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B477" s="1"/>
+    </row>
+    <row r="478" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B478" s="1"/>
+    </row>
+    <row r="479" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B479" s="1"/>
+    </row>
+    <row r="480" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B480" s="1"/>
+    </row>
+    <row r="481" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B481" s="1"/>
+    </row>
+    <row r="482" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B482" s="1"/>
+    </row>
+    <row r="483" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B483" s="1"/>
+    </row>
+    <row r="484" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B484" s="1"/>
+    </row>
+    <row r="485" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B485" s="1"/>
+    </row>
+    <row r="486" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B486" s="1"/>
+    </row>
+    <row r="487" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B487" s="1"/>
+    </row>
+    <row r="488" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B488" s="1"/>
+    </row>
+    <row r="489" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B489" s="1"/>
+    </row>
+    <row r="490" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B490" s="1"/>
+    </row>
+    <row r="491" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B491" s="1"/>
+    </row>
+    <row r="492" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B492" s="1"/>
+    </row>
+    <row r="493" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B493" s="1"/>
+    </row>
+    <row r="494" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B494" s="1"/>
+    </row>
+    <row r="495" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B495" s="1"/>
+    </row>
+    <row r="496" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B496" s="1"/>
+    </row>
+    <row r="497" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B497" s="1"/>
+    </row>
+    <row r="498" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B498" s="1"/>
+    </row>
+    <row r="499" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B499" s="1"/>
+    </row>
+    <row r="500" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B500" s="1"/>
+    </row>
+    <row r="501" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B501" s="1"/>
+    </row>
+    <row r="502" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B502" s="1"/>
+    </row>
+    <row r="503" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B503" s="1"/>
+    </row>
+    <row r="504" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B504" s="1"/>
+    </row>
+    <row r="505" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B505" s="1"/>
+    </row>
+    <row r="506" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B506" s="1"/>
+    </row>
+    <row r="507" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B507" s="1"/>
+    </row>
+    <row r="508" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B508" s="1"/>
+    </row>
+    <row r="509" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B509" s="1"/>
+    </row>
+    <row r="510" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B510" s="1"/>
+    </row>
+    <row r="511" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B511" s="1"/>
+    </row>
+    <row r="512" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B512" s="1"/>
+    </row>
+    <row r="513" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B513" s="1"/>
+    </row>
+    <row r="514" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B514" s="1"/>
+    </row>
+    <row r="515" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B515" s="1"/>
+    </row>
+    <row r="516" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B516" s="1"/>
+    </row>
+    <row r="517" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B517" s="1"/>
+    </row>
+    <row r="518" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B518" s="1"/>
+    </row>
+    <row r="519" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B519" s="1"/>
+    </row>
+    <row r="520" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B520" s="1"/>
+    </row>
+    <row r="521" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B521" s="1"/>
+    </row>
+    <row r="522" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B522" s="1"/>
+    </row>
+    <row r="523" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B523" s="1"/>
+    </row>
+    <row r="524" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B524" s="1"/>
+    </row>
+    <row r="525" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B525" s="1"/>
+    </row>
+    <row r="526" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B526" s="1"/>
+    </row>
+    <row r="527" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B527" s="1"/>
+    </row>
+    <row r="528" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B528" s="1"/>
+    </row>
+    <row r="529" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B529" s="1"/>
+    </row>
+    <row r="530" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B530" s="1"/>
+    </row>
+    <row r="531" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B531" s="1"/>
+    </row>
+    <row r="532" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B532" s="1"/>
+    </row>
+    <row r="533" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B533" s="1"/>
+    </row>
+    <row r="534" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B534" s="1"/>
+    </row>
+    <row r="535" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B535" s="1"/>
+    </row>
+    <row r="536" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B536" s="1"/>
+    </row>
+    <row r="537" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B537" s="1"/>
+    </row>
+    <row r="538" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B538" s="1"/>
+    </row>
+    <row r="539" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B539" s="1"/>
+    </row>
+    <row r="540" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B540" s="1"/>
+    </row>
+    <row r="541" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B541" s="1"/>
+    </row>
+    <row r="542" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B542" s="1"/>
+    </row>
+    <row r="543" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B543" s="1"/>
+    </row>
+    <row r="544" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B544" s="1"/>
+    </row>
+    <row r="545" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B545" s="1"/>
+    </row>
+    <row r="546" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B546" s="1"/>
+    </row>
+    <row r="547" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B547" s="1"/>
+    </row>
+    <row r="548" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B548" s="1"/>
+    </row>
+    <row r="549" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B549" s="1"/>
+    </row>
+    <row r="550" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B550" s="1"/>
+    </row>
+    <row r="551" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B551" s="1"/>
+    </row>
+    <row r="552" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B552" s="1"/>
+    </row>
+    <row r="553" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B553" s="1"/>
+    </row>
+    <row r="554" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B554" s="1"/>
+    </row>
+    <row r="555" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B555" s="1"/>
+    </row>
+    <row r="556" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B556" s="1"/>
+    </row>
+    <row r="557" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B557" s="1"/>
+    </row>
+    <row r="558" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B558" s="1"/>
+    </row>
+    <row r="559" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B559" s="1"/>
+    </row>
+    <row r="560" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B560" s="1"/>
+    </row>
+    <row r="561" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B561" s="1"/>
+    </row>
+    <row r="562" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B562" s="1"/>
+    </row>
+    <row r="563" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B563" s="1"/>
+    </row>
+    <row r="564" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B564" s="1"/>
+    </row>
+    <row r="565" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B565" s="1"/>
+    </row>
+    <row r="566" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B566" s="1"/>
+    </row>
+    <row r="567" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B567" s="1"/>
+    </row>
+    <row r="568" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B568" s="1"/>
+    </row>
+    <row r="569" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B569" s="1"/>
+    </row>
+    <row r="570" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B570" s="1"/>
+    </row>
+    <row r="571" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B571" s="1"/>
+    </row>
+    <row r="572" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B572" s="1"/>
+    </row>
+    <row r="573" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B573" s="1"/>
+    </row>
+    <row r="574" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B574" s="1"/>
+    </row>
+    <row r="575" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B575" s="1"/>
+    </row>
+    <row r="576" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B576" s="1"/>
+    </row>
+    <row r="577" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B577" s="1"/>
+    </row>
+    <row r="578" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B578" s="1"/>
+    </row>
+    <row r="579" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B579" s="1"/>
+    </row>
+    <row r="580" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B580" s="1"/>
+    </row>
+    <row r="581" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B581" s="1"/>
+    </row>
+    <row r="582" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B582" s="1"/>
+    </row>
+    <row r="583" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B583" s="1"/>
+    </row>
+    <row r="584" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B584" s="1"/>
+    </row>
+    <row r="585" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B585" s="1"/>
+    </row>
+    <row r="586" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B586" s="1"/>
+    </row>
+    <row r="587" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B587" s="1"/>
+    </row>
+    <row r="588" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B588" s="1"/>
+    </row>
+    <row r="589" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B589" s="1"/>
+    </row>
+    <row r="590" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B590" s="1"/>
+    </row>
+    <row r="591" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B591" s="1"/>
+    </row>
+    <row r="592" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B592" s="1"/>
+    </row>
+    <row r="593" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B593" s="1"/>
+    </row>
+    <row r="594" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B594" s="1"/>
+    </row>
+    <row r="595" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B595" s="1"/>
+    </row>
+    <row r="596" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B596" s="1"/>
+    </row>
+    <row r="597" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B597" s="1"/>
+    </row>
+    <row r="598" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B598" s="1"/>
+    </row>
+    <row r="599" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B599" s="1"/>
+    </row>
+    <row r="600" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B600" s="1"/>
+    </row>
+    <row r="601" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B601" s="1"/>
+    </row>
+    <row r="602" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B602" s="1"/>
+    </row>
+    <row r="603" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B603" s="1"/>
+    </row>
+    <row r="604" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B604" s="1"/>
+    </row>
+    <row r="605" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B605" s="1"/>
+    </row>
+    <row r="606" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B606" s="1"/>
+    </row>
+    <row r="607" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B607" s="1"/>
+    </row>
+    <row r="608" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B608" s="1"/>
+    </row>
+    <row r="609" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B609" s="1"/>
+    </row>
+    <row r="610" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B610" s="1"/>
+    </row>
+    <row r="611" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B611" s="1"/>
+    </row>
+    <row r="612" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B612" s="1"/>
+    </row>
+    <row r="613" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B613" s="1"/>
+    </row>
+    <row r="614" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B614" s="1"/>
+    </row>
+    <row r="615" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B615" s="1"/>
+    </row>
+    <row r="616" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B616" s="1"/>
+    </row>
+    <row r="617" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B617" s="1"/>
+    </row>
+    <row r="618" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B618" s="1"/>
+    </row>
+    <row r="619" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B619" s="1"/>
+    </row>
+    <row r="620" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B620" s="1"/>
+    </row>
+    <row r="621" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B621" s="1"/>
+    </row>
+    <row r="622" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B622" s="1"/>
+    </row>
+    <row r="623" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B623" s="1"/>
+    </row>
+    <row r="624" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B624" s="1"/>
+    </row>
+    <row r="625" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B625" s="1"/>
+    </row>
+    <row r="626" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B626" s="1"/>
+    </row>
+    <row r="627" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B627" s="1"/>
+    </row>
+    <row r="628" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B628" s="1"/>
+    </row>
+    <row r="629" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B629" s="1"/>
+    </row>
+    <row r="630" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B630" s="1"/>
+    </row>
+    <row r="631" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B631" s="1"/>
+    </row>
+    <row r="632" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B632" s="1"/>
+    </row>
+    <row r="633" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B633" s="1"/>
+    </row>
+    <row r="634" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B634" s="1"/>
+    </row>
+    <row r="635" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B635" s="1"/>
+    </row>
+    <row r="636" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B636" s="1"/>
+    </row>
+    <row r="637" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B637" s="1"/>
+    </row>
+    <row r="638" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B638" s="1"/>
+    </row>
+    <row r="639" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B639" s="1"/>
+    </row>
+    <row r="640" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B640" s="1"/>
+    </row>
+    <row r="641" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B641" s="1"/>
+    </row>
+    <row r="642" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B642" s="1"/>
+    </row>
+    <row r="643" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B643" s="1"/>
+    </row>
+    <row r="644" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B644" s="1"/>
+    </row>
+    <row r="645" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B645" s="1"/>
+    </row>
+    <row r="646" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B646" s="1"/>
+    </row>
+    <row r="647" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B647" s="1"/>
+    </row>
+    <row r="648" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B648" s="1"/>
+    </row>
+    <row r="649" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B649" s="1"/>
+    </row>
+    <row r="650" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B650" s="1"/>
+    </row>
+    <row r="651" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B651" s="1"/>
+    </row>
+    <row r="652" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B652" s="1"/>
+    </row>
+    <row r="653" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B653" s="1"/>
+    </row>
+    <row r="654" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B654" s="1"/>
+    </row>
+    <row r="655" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B655" s="1"/>
+    </row>
+    <row r="656" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B656" s="1"/>
+    </row>
+    <row r="657" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B657" s="1"/>
+    </row>
+    <row r="658" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B658" s="1"/>
+    </row>
+    <row r="659" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B659" s="1"/>
+    </row>
+    <row r="660" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B660" s="1"/>
+    </row>
+    <row r="661" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B661" s="1"/>
+    </row>
+    <row r="662" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B662" s="1"/>
+    </row>
+    <row r="663" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B663" s="1"/>
+    </row>
+    <row r="664" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B664" s="1"/>
+    </row>
+    <row r="665" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B665" s="1"/>
+    </row>
+    <row r="666" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B666" s="1"/>
+    </row>
+    <row r="667" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B667" s="1"/>
+    </row>
+    <row r="668" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B668" s="1"/>
+    </row>
+    <row r="669" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B669" s="1"/>
+    </row>
+    <row r="670" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B670" s="1"/>
+    </row>
+    <row r="671" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B671" s="1"/>
+    </row>
+    <row r="672" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B672" s="1"/>
+    </row>
+    <row r="673" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B673" s="1"/>
+    </row>
+    <row r="674" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B674" s="1"/>
+    </row>
+    <row r="675" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B675" s="1"/>
+    </row>
+    <row r="676" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B676" s="1"/>
+    </row>
+    <row r="677" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B677" s="1"/>
+    </row>
+    <row r="678" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B678" s="1"/>
+    </row>
+    <row r="679" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B679" s="1"/>
+    </row>
+    <row r="680" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B680" s="1"/>
+    </row>
+    <row r="681" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B681" s="1"/>
+    </row>
+    <row r="682" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B682" s="1"/>
+    </row>
+    <row r="683" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B683" s="1"/>
+    </row>
+    <row r="684" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B684" s="1"/>
+    </row>
+    <row r="685" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B685" s="1"/>
+    </row>
+    <row r="686" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B686" s="1"/>
+    </row>
+    <row r="687" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B687" s="1"/>
+    </row>
+    <row r="688" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B688" s="1"/>
+    </row>
+    <row r="689" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B689" s="1"/>
+    </row>
+    <row r="690" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B690" s="1"/>
+    </row>
+    <row r="691" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B691" s="1"/>
+    </row>
+    <row r="692" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B692" s="1"/>
+    </row>
+    <row r="693" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B693" s="1"/>
+    </row>
+    <row r="694" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B694" s="1"/>
+    </row>
+    <row r="695" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B695" s="1"/>
+    </row>
+    <row r="696" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B696" s="1"/>
+    </row>
+    <row r="697" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B697" s="1"/>
+    </row>
+    <row r="698" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B698" s="1"/>
+    </row>
+    <row r="699" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B699" s="1"/>
+    </row>
+    <row r="700" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B700" s="1"/>
+    </row>
+    <row r="701" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B701" s="1"/>
+    </row>
+    <row r="702" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B702" s="1"/>
+    </row>
+    <row r="703" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B703" s="1"/>
+    </row>
+    <row r="704" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B704" s="1"/>
+    </row>
+    <row r="705" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B705" s="1"/>
+    </row>
+    <row r="706" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B706" s="1"/>
+    </row>
+    <row r="707" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B707" s="1"/>
+    </row>
+    <row r="708" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B708" s="1"/>
+    </row>
+    <row r="709" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B709" s="1"/>
+    </row>
+    <row r="710" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B710" s="1"/>
+    </row>
+    <row r="711" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B711" s="1"/>
+    </row>
+    <row r="712" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B712" s="1"/>
+    </row>
+    <row r="713" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B713" s="1"/>
+    </row>
+    <row r="714" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B714" s="1"/>
+    </row>
+    <row r="715" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B715" s="1"/>
+    </row>
+    <row r="716" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B716" s="1"/>
+    </row>
+    <row r="717" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B717" s="1"/>
+    </row>
+    <row r="718" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B718" s="1"/>
+    </row>
+    <row r="719" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B719" s="1"/>
+    </row>
+    <row r="720" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B720" s="1"/>
+    </row>
+    <row r="721" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B721" s="1"/>
+    </row>
+    <row r="722" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B722" s="1"/>
+    </row>
+    <row r="723" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B723" s="1"/>
+    </row>
+    <row r="724" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B724" s="1"/>
+    </row>
+    <row r="725" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B725" s="1"/>
+    </row>
+    <row r="726" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B726" s="1"/>
+    </row>
+    <row r="727" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B727" s="1"/>
+    </row>
+    <row r="728" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B728" s="1"/>
+    </row>
+    <row r="729" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B729" s="1"/>
+    </row>
+    <row r="730" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B730" s="1"/>
+    </row>
+    <row r="731" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B731" s="1"/>
+    </row>
+    <row r="732" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B732" s="1"/>
+    </row>
+    <row r="733" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B733" s="1"/>
+    </row>
+    <row r="734" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B734" s="1"/>
+    </row>
+    <row r="735" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B735" s="1"/>
+    </row>
+    <row r="736" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B736" s="1"/>
+    </row>
+    <row r="737" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B737" s="1"/>
+    </row>
+    <row r="738" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B738" s="1"/>
+    </row>
+    <row r="739" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B739" s="1"/>
+    </row>
+    <row r="740" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B740" s="1"/>
+    </row>
+    <row r="741" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B741" s="1"/>
+    </row>
+    <row r="742" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B742" s="1"/>
+    </row>
+    <row r="743" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B743" s="1"/>
+    </row>
+    <row r="744" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B744" s="1"/>
+    </row>
+    <row r="745" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B745" s="1"/>
+    </row>
+    <row r="746" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B746" s="1"/>
+    </row>
+    <row r="747" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B747" s="1"/>
+    </row>
+    <row r="748" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B748" s="1"/>
+    </row>
+    <row r="749" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B749" s="1"/>
+    </row>
+    <row r="750" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B750" s="1"/>
+    </row>
+    <row r="751" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B751" s="1"/>
+    </row>
+    <row r="752" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B752" s="1"/>
+    </row>
+    <row r="753" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B753" s="1"/>
+    </row>
+    <row r="754" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B754" s="1"/>
+    </row>
+    <row r="755" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B755" s="1"/>
+    </row>
+    <row r="756" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B756" s="1"/>
+    </row>
+    <row r="757" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B757" s="1"/>
+    </row>
+    <row r="758" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B758" s="1"/>
+    </row>
+    <row r="759" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B759" s="1"/>
+    </row>
+    <row r="760" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B760" s="1"/>
+    </row>
+    <row r="761" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B761" s="1"/>
+    </row>
+    <row r="762" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B762" s="1"/>
+    </row>
+    <row r="763" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B763" s="1"/>
+    </row>
+    <row r="764" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B764" s="1"/>
+    </row>
+    <row r="765" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B765" s="1"/>
+    </row>
+    <row r="766" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B766" s="1"/>
+    </row>
+    <row r="767" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B767" s="1"/>
+    </row>
+    <row r="768" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B768" s="1"/>
+    </row>
+    <row r="769" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B769" s="1"/>
+    </row>
+    <row r="770" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B770" s="1"/>
+    </row>
+    <row r="771" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B771" s="1"/>
+    </row>
+    <row r="772" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B772" s="1"/>
+    </row>
+    <row r="773" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B773" s="1"/>
+    </row>
+    <row r="774" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B774" s="1"/>
+    </row>
+    <row r="775" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B775" s="1"/>
+    </row>
+    <row r="776" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B776" s="1"/>
+    </row>
+    <row r="777" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B777" s="1"/>
+    </row>
+    <row r="778" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B778" s="1"/>
+    </row>
+    <row r="779" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B779" s="1"/>
+    </row>
+    <row r="780" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B780" s="1"/>
+    </row>
+    <row r="781" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B781" s="1"/>
+    </row>
+    <row r="782" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B782" s="1"/>
+    </row>
+    <row r="783" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B783" s="1"/>
+    </row>
+    <row r="784" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B784" s="1"/>
+    </row>
+    <row r="785" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B785" s="1"/>
+    </row>
+    <row r="786" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B786" s="1"/>
+    </row>
+    <row r="787" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B787" s="1"/>
+    </row>
+    <row r="788" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B788" s="1"/>
+    </row>
+    <row r="789" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B789" s="1"/>
+    </row>
+    <row r="790" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B790" s="1"/>
+    </row>
+    <row r="791" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B791" s="1"/>
+    </row>
+    <row r="792" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B792" s="1"/>
+    </row>
+    <row r="793" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B793" s="1"/>
+    </row>
+    <row r="794" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B794" s="1"/>
+    </row>
+    <row r="795" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B795" s="1"/>
+    </row>
+    <row r="796" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B796" s="1"/>
+    </row>
+    <row r="797" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B797" s="1"/>
+    </row>
+    <row r="798" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B798" s="1"/>
+    </row>
+    <row r="799" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B799" s="1"/>
+    </row>
+    <row r="800" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B800" s="1"/>
+    </row>
+    <row r="801" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B801" s="1"/>
+    </row>
+    <row r="802" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B802" s="1"/>
+    </row>
+    <row r="803" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B803" s="1"/>
+    </row>
+    <row r="804" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B804" s="1"/>
+    </row>
+    <row r="805" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B805" s="1"/>
+    </row>
+    <row r="806" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B806" s="1"/>
+    </row>
+    <row r="807" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B807" s="1"/>
+    </row>
+    <row r="808" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B808" s="1"/>
+    </row>
+    <row r="809" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B809" s="1"/>
+    </row>
+    <row r="810" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B810" s="1"/>
+    </row>
+    <row r="811" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B811" s="1"/>
+    </row>
+    <row r="812" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B812" s="1"/>
+    </row>
+    <row r="813" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B813" s="1"/>
+    </row>
+    <row r="814" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B814" s="1"/>
+    </row>
+    <row r="815" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B815" s="1"/>
+    </row>
+    <row r="816" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B816" s="1"/>
+    </row>
+    <row r="817" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B817" s="1"/>
+    </row>
+    <row r="818" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B818" s="1"/>
+    </row>
+    <row r="819" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B819" s="1"/>
+    </row>
+    <row r="820" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B820" s="1"/>
+    </row>
+    <row r="821" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B821" s="1"/>
+    </row>
+    <row r="822" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B822" s="1"/>
+    </row>
+    <row r="823" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B823" s="1"/>
+    </row>
+    <row r="824" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B824" s="1"/>
+    </row>
+    <row r="825" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B825" s="1"/>
+    </row>
+    <row r="826" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B826" s="1"/>
+    </row>
+    <row r="827" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B827" s="1"/>
+    </row>
+    <row r="828" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B828" s="1"/>
+    </row>
+    <row r="829" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B829" s="1"/>
+    </row>
+    <row r="830" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B830" s="1"/>
+    </row>
+    <row r="831" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B831" s="1"/>
+    </row>
+    <row r="832" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B832" s="1"/>
+    </row>
+    <row r="833" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B833" s="1"/>
+    </row>
+    <row r="834" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B834" s="1"/>
+    </row>
+    <row r="835" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B835" s="1"/>
+    </row>
+    <row r="836" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B836" s="1"/>
+    </row>
+    <row r="837" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B837" s="1"/>
+    </row>
+    <row r="838" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B838" s="1"/>
+    </row>
+    <row r="839" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B839" s="1"/>
+    </row>
+    <row r="840" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B840" s="1"/>
+    </row>
+    <row r="841" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B841" s="1"/>
+    </row>
+    <row r="842" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B842" s="1"/>
+    </row>
+    <row r="843" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B843" s="1"/>
+    </row>
+    <row r="844" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B844" s="1"/>
+    </row>
+    <row r="845" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B845" s="1"/>
+    </row>
+    <row r="846" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B846" s="1"/>
+    </row>
+    <row r="847" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B847" s="1"/>
+    </row>
+    <row r="848" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B848" s="1"/>
+    </row>
+    <row r="849" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B849" s="1"/>
+    </row>
+    <row r="850" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B850" s="1"/>
+    </row>
+    <row r="851" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B851" s="1"/>
+    </row>
+    <row r="852" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B852" s="1"/>
+    </row>
+    <row r="853" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B853" s="1"/>
+    </row>
+    <row r="854" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B854" s="1"/>
+    </row>
+    <row r="855" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B855" s="1"/>
+    </row>
+    <row r="856" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B856" s="1"/>
+    </row>
+    <row r="857" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B857" s="1"/>
+    </row>
+    <row r="858" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B858" s="1"/>
+    </row>
+    <row r="859" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B859" s="1"/>
+    </row>
+    <row r="860" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B860" s="1"/>
+    </row>
+    <row r="861" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B861" s="1"/>
+    </row>
+    <row r="862" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B862" s="1"/>
+    </row>
+    <row r="863" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B863" s="1"/>
+    </row>
+    <row r="864" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B864" s="1"/>
+    </row>
+    <row r="865" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B865" s="1"/>
+    </row>
+    <row r="866" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B866" s="1"/>
+    </row>
+    <row r="867" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B867" s="1"/>
+    </row>
+    <row r="868" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B868" s="1"/>
+    </row>
+    <row r="869" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B869" s="1"/>
+    </row>
+    <row r="870" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B870" s="1"/>
+    </row>
+    <row r="871" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B871" s="1"/>
+    </row>
+    <row r="872" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B872" s="1"/>
+    </row>
+    <row r="873" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B873" s="1"/>
+    </row>
+    <row r="874" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B874" s="1"/>
+    </row>
+    <row r="875" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B875" s="1"/>
+    </row>
+    <row r="876" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B876" s="1"/>
+    </row>
+    <row r="877" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B877" s="1"/>
+    </row>
+    <row r="878" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B878" s="1"/>
+    </row>
+    <row r="879" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B879" s="1"/>
+    </row>
+    <row r="880" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B880" s="1"/>
+    </row>
+    <row r="881" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B881" s="1"/>
+    </row>
+    <row r="882" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B882" s="1"/>
+    </row>
+    <row r="883" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B883" s="1"/>
+    </row>
+    <row r="884" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B884" s="1"/>
+    </row>
+    <row r="885" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B885" s="1"/>
+    </row>
+    <row r="886" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B886" s="1"/>
+    </row>
+    <row r="887" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B887" s="1"/>
+    </row>
+    <row r="888" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B888" s="1"/>
+    </row>
+    <row r="889" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B889" s="1"/>
+    </row>
+    <row r="890" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B890" s="1"/>
+    </row>
+    <row r="891" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B891" s="1"/>
+    </row>
+    <row r="892" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B892" s="1"/>
+    </row>
+    <row r="893" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B893" s="1"/>
+    </row>
+    <row r="894" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B894" s="1"/>
+    </row>
+    <row r="895" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B895" s="1"/>
+    </row>
+    <row r="896" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B896" s="1"/>
+    </row>
+    <row r="897" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B897" s="1"/>
+    </row>
+    <row r="898" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B898" s="1"/>
+    </row>
+    <row r="899" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B899" s="1"/>
+    </row>
+    <row r="900" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B900" s="1"/>
+    </row>
+    <row r="901" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B901" s="1"/>
+    </row>
+    <row r="902" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B902" s="1"/>
+    </row>
+    <row r="903" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B903" s="1"/>
+    </row>
+    <row r="904" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B904" s="1"/>
+    </row>
+    <row r="905" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B905" s="1"/>
+    </row>
+    <row r="906" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B906" s="1"/>
+    </row>
+    <row r="907" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B907" s="1"/>
+    </row>
+    <row r="908" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B908" s="1"/>
+    </row>
+    <row r="909" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B909" s="1"/>
+    </row>
+    <row r="910" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B910" s="1"/>
+    </row>
+    <row r="911" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B911" s="1"/>
+    </row>
+    <row r="912" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B912" s="1"/>
+    </row>
+    <row r="913" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B913" s="1"/>
+    </row>
+    <row r="914" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B914" s="1"/>
+    </row>
+    <row r="915" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B915" s="1"/>
+    </row>
+    <row r="916" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B916" s="1"/>
+    </row>
+    <row r="917" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B917" s="1"/>
+    </row>
+    <row r="918" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B918" s="1"/>
+    </row>
+    <row r="919" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B919" s="1"/>
+    </row>
+    <row r="920" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B920" s="1"/>
+    </row>
+    <row r="921" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B921" s="1"/>
+    </row>
+    <row r="922" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B922" s="1"/>
+    </row>
+    <row r="923" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B923" s="1"/>
+    </row>
+    <row r="924" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B924" s="1"/>
+    </row>
+    <row r="925" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B925" s="1"/>
+    </row>
+    <row r="926" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B926" s="1"/>
+    </row>
+    <row r="927" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B927" s="1"/>
+    </row>
+    <row r="928" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B928" s="1"/>
+    </row>
+    <row r="929" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B929" s="1"/>
+    </row>
+    <row r="930" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B930" s="1"/>
+    </row>
+    <row r="931" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B931" s="1"/>
+    </row>
+    <row r="932" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B932" s="1"/>
+    </row>
+    <row r="933" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B933" s="1"/>
+    </row>
+    <row r="934" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B934" s="1"/>
+    </row>
+    <row r="935" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B935" s="1"/>
+    </row>
+    <row r="936" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B936" s="1"/>
+    </row>
+    <row r="937" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B937" s="1"/>
+    </row>
+    <row r="938" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B938" s="1"/>
+    </row>
+    <row r="939" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B939" s="1"/>
+    </row>
+    <row r="940" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B940" s="1"/>
+    </row>
+    <row r="941" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B941" s="1"/>
+    </row>
+    <row r="942" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B942" s="1"/>
+    </row>
+    <row r="943" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B943" s="1"/>
+    </row>
+    <row r="944" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B944" s="1"/>
+    </row>
+    <row r="945" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B945" s="1"/>
+    </row>
+    <row r="946" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B946" s="1"/>
+    </row>
+    <row r="947" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B947" s="1"/>
+    </row>
+    <row r="948" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B948" s="1"/>
+    </row>
+    <row r="949" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B949" s="1"/>
+    </row>
+    <row r="950" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B950" s="1"/>
+    </row>
+    <row r="951" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B951" s="1"/>
+    </row>
+    <row r="952" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B952" s="1"/>
+    </row>
+    <row r="953" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B953" s="1"/>
+    </row>
+    <row r="954" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B954" s="1"/>
+    </row>
+    <row r="955" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B955" s="1"/>
+    </row>
+    <row r="956" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B956" s="1"/>
+    </row>
+    <row r="957" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B957" s="1"/>
+    </row>
+    <row r="958" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B958" s="1"/>
+    </row>
+    <row r="959" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B959" s="1"/>
+    </row>
+    <row r="960" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B960" s="1"/>
+    </row>
+    <row r="961" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B961" s="1"/>
+    </row>
+    <row r="962" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B962" s="1"/>
+    </row>
+    <row r="963" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B963" s="1"/>
+    </row>
+    <row r="964" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B964" s="1"/>
+    </row>
+    <row r="965" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B965" s="1"/>
+    </row>
+    <row r="966" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B966" s="1"/>
+    </row>
+    <row r="967" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B967" s="1"/>
+    </row>
+    <row r="968" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B968" s="1"/>
+    </row>
+    <row r="969" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B969" s="1"/>
+    </row>
+    <row r="970" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B970" s="1"/>
+    </row>
+    <row r="971" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B971" s="1"/>
+    </row>
+    <row r="972" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B972" s="1"/>
+    </row>
+    <row r="973" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B973" s="1"/>
+    </row>
+    <row r="974" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B974" s="1"/>
+    </row>
+    <row r="975" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B975" s="1"/>
+    </row>
+    <row r="976" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B976" s="1"/>
+    </row>
+    <row r="977" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B977" s="1"/>
+    </row>
+    <row r="978" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B978" s="1"/>
+    </row>
+    <row r="979" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B979" s="1"/>
+    </row>
+    <row r="980" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B980" s="1"/>
+    </row>
+    <row r="981" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B981" s="1"/>
+    </row>
+    <row r="982" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B982" s="1"/>
+    </row>
+    <row r="983" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B983" s="1"/>
+    </row>
+    <row r="984" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B984" s="1"/>
+    </row>
+    <row r="985" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B985" s="1"/>
+    </row>
+    <row r="986" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B986" s="1"/>
+    </row>
+    <row r="987" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B987" s="1"/>
+    </row>
+    <row r="988" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B988" s="1"/>
+    </row>
+    <row r="989" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B989" s="1"/>
+    </row>
+    <row r="990" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B990" s="1"/>
+    </row>
+    <row r="991" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B991" s="1"/>
+    </row>
+    <row r="992" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B992" s="1"/>
+    </row>
+    <row r="993" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B993" s="1"/>
+    </row>
+    <row r="994" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B994" s="1"/>
+    </row>
+    <row r="995" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B995" s="1"/>
+    </row>
+    <row r="996" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B996" s="1"/>
+    </row>
+    <row r="997" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B997" s="1"/>
+    </row>
+    <row r="998" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B998" s="1"/>
+    </row>
+    <row r="999" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B999" s="1"/>
+    </row>
+    <row r="1000" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1000" s="1"/>
+    </row>
+    <row r="1001" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1001" s="1"/>
+    </row>
+    <row r="1002" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1002" s="1"/>
+    </row>
+    <row r="1003" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1003" s="1"/>
+    </row>
+    <row r="1004" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1004" s="1"/>
+    </row>
+    <row r="1005" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1005" s="1"/>
+    </row>
+    <row r="1006" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1006" s="1"/>
+    </row>
+    <row r="1007" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1007" s="1"/>
+    </row>
+    <row r="1008" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1008" s="1"/>
+    </row>
+    <row r="1009" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1009" s="1"/>
+    </row>
+    <row r="1010" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1010" s="1"/>
+    </row>
+    <row r="1011" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1011" s="1"/>
+    </row>
+    <row r="1012" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1012" s="1"/>
+    </row>
+    <row r="1013" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1013" s="1"/>
+    </row>
+    <row r="1014" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1014" s="1"/>
+    </row>
+    <row r="1015" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1015" s="1"/>
+    </row>
+    <row r="1016" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1016" s="1"/>
+    </row>
+    <row r="1017" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1017" s="1"/>
+    </row>
+    <row r="1018" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1018" s="1"/>
+    </row>
+    <row r="1019" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1019" s="1"/>
+    </row>
+    <row r="1020" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1020" s="1"/>
+    </row>
+    <row r="1021" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1021" s="1"/>
+    </row>
+    <row r="1022" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1022" s="1"/>
+    </row>
+    <row r="1023" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1023" s="1"/>
+    </row>
+    <row r="1024" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1024" s="1"/>
+    </row>
+    <row r="1025" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1025" s="1"/>
+    </row>
+    <row r="1026" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1026" s="1"/>
+    </row>
+    <row r="1027" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1027" s="1"/>
+    </row>
+    <row r="1028" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1028" s="1"/>
+    </row>
+    <row r="1029" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1029" s="1"/>
+    </row>
+    <row r="1030" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1030" s="1"/>
+    </row>
+    <row r="1031" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1031" s="1"/>
+    </row>
+    <row r="1032" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1032" s="1"/>
+    </row>
+    <row r="1033" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1033" s="1"/>
+    </row>
+    <row r="1034" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1034" s="1"/>
+    </row>
+    <row r="1035" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1035" s="1"/>
+    </row>
+    <row r="1036" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1036" s="1"/>
+    </row>
+    <row r="1037" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1037" s="1"/>
+    </row>
+    <row r="1038" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1038" s="1"/>
+    </row>
+    <row r="1039" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1039" s="1"/>
+    </row>
+    <row r="1040" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1040" s="1"/>
+    </row>
+    <row r="1041" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1041" s="1"/>
+    </row>
+    <row r="1042" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1042" s="1"/>
+    </row>
+    <row r="1043" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1043" s="1"/>
+    </row>
+    <row r="1044" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1044" s="1"/>
+    </row>
+    <row r="1045" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1045" s="1"/>
+    </row>
+    <row r="1046" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1046" s="1"/>
+    </row>
+    <row r="1047" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1047" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2643,10 +5754,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="2" sqref="C31 B31 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="72" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2671,11 +5782,11 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="3" t="s">
         <v>197</v>
       </c>
       <c r="D2" s="3"/>
@@ -2685,67 +5796,67 @@
         <v>198</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="3" t="s">
         <v>203</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="3" t="s">
         <v>209</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="3" t="s">
         <v>211</v>
       </c>
       <c r="D9" s="3"/>
@@ -2761,7 +5872,7 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="8" t="s">
         <v>214</v>
       </c>
       <c r="B11" s="3"/>
@@ -2879,6 +5990,46 @@
         <v>237</v>
       </c>
       <c r="D22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2896,10 +6047,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="1" sqref="C31 B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="108" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2909,46 +6060,46 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>3.75</v>
@@ -2956,7 +6107,7 @@
     </row>
     <row r="6" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>6000</v>
@@ -2964,39 +6115,39 @@
     </row>
     <row r="7" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>2</v>
@@ -3004,7 +6155,7 @@
     </row>
     <row r="12" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>40</v>
@@ -3012,15 +6163,15 @@
     </row>
     <row r="13" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>3050</v>
@@ -3028,34 +6179,138 @@
     </row>
     <row r="15" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>-320</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" s="16" t="n">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C29" s="16" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/flash_card_data.xlsx
+++ b/excel_files/flash_card_data.xlsx
@@ -5,15 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Conversions" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="MathFormulas" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="MathRandoms" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="PipeRandoms" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="MDRandoms" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="MathRandoms" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="PipeRandoms" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="MDRandoms" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="234">
   <si>
     <t xml:space="preserve">Front</t>
   </si>
@@ -310,86 +309,6 @@
     <t xml:space="preserve">28.97 kg/kmol</t>
   </si>
   <si>
-    <t xml:space="preserve">Mass of atom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">images\math_formulas1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellipse formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circle formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depreciation Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Book value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Future value annuity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Present value annuity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sine law</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cosine law</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projectile Motion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relative Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulus of Elasticity Elongation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work done on spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circular lake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">images\math_formulas2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring body fall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reynolds Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume of solid of revolution
-Disk Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume of solid of revolution
-Washer Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value of interior angle of a regular polygon</t>
-  </si>
-  <si>
     <t xml:space="preserve">Locus of points on a side which rolls along a fixed line </t>
   </si>
   <si>
@@ -527,38 +446,10 @@
     <t xml:space="preserve">Trochoid</t>
   </si>
   <si>
-    <t xml:space="preserve">The graph of the equation r = aco2Ѳ
-is a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosette</t>
-  </si>
-  <si>
     <t xml:space="preserve">The equation r^2 = a^2 cosѲ is a</t>
   </si>
   <si>
     <t xml:space="preserve">lemniscates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The equation r = a cosѲ is a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A form of summary of assets, liabilities, and net worth:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balance sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The amount received from the sale of an additional unit of a product is termed as:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marginal revenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One-fourth of a great circle:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quadrant</t>
   </si>
   <si>
     <t xml:space="preserve">A formal organization of producers within an industry forming a perfect collision
@@ -566,28 +457,6 @@
   </si>
   <si>
     <t xml:space="preserve">Price leadership</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Equal volume of all gases under the same conditions of temperature and pressure
-contain the same number of molecules”. This hypothesis is promptly known as:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avogadro’s hypothesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the general equation of the conic is
-Ax2 + 2Bxy + Cy2 + Ey + F = 0, and B2 -
-4AC &gt; 0, then the conic is a/an</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyperbola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What type of conic has equation of
-Ax2 + Cy2 + Dx + Ey + F = 0?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellipse</t>
   </si>
   <si>
     <t xml:space="preserve">A line passing through the focus and
@@ -607,36 +476,6 @@
     <t xml:space="preserve">perpendicular to each other</t>
   </si>
   <si>
-    <t xml:space="preserve">The straight lines 4x – y + 3 = 0 and
-8x – 2y + 6 = 0 are</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coincident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which of the ff. is the intercept form
-of an equation for straight lines?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">( x / a ) + ( y / b ) = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A conic section is curve which is the
-intersection of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a cone and a plane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the distance from the center to the
-focus of an ellipse is c, from the center
-to the vertex is a and from the center to
-the directrix is D, its eccentrcity, is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c/a</t>
-  </si>
-  <si>
     <t xml:space="preserve">The tangents to the parabola at the
 end points of its latus rectum
 intersect</t>
@@ -661,44 +500,14 @@
     <t xml:space="preserve">√̅2</t>
   </si>
   <si>
-    <t xml:space="preserve">A parabola has an eccentricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equal to 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confocal conics are conics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">having the same foci</t>
-  </si>
-  <si>
     <t xml:space="preserve">Given the polar equation
 r=3 / (1 + 3cosѲ). This is a graph of a/an</t>
   </si>
   <si>
-    <t xml:space="preserve">The equation r = 4cosѲ is a/an</t>
-  </si>
-  <si>
-    <t xml:space="preserve">circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a triangle where all three sides have different lengths, and consequently, all three angles have different measures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scalene triangle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a triangle with two sides of equal length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isosceles triangle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a triangle where all three sides are equal in length, and consequently, all three interior angles are also equal, each measuring 60 degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equilateral triangle</t>
+    <t xml:space="preserve">This is the case of a solution of a plane triangle where the given data leads to two solutions. How do you call this case? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambiguous case </t>
   </si>
   <si>
     <t xml:space="preserve">A component installed a refrigeration system to ensure that no liquid enters the compressor and subcooled the liquid from condenser to prevent bubbles of vapor from impending the flow of refrigerant through expansion valve is called: </t>
@@ -707,18 +516,6 @@
     <t xml:space="preserve">liquid-to-suction heat exchanger </t>
   </si>
   <si>
-    <t xml:space="preserve">Aircraft gas turbines operate at higher pressure ratio typically between </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 to 25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Stirling process the heat is added during </t>
-  </si>
-  <si>
-    <t xml:space="preserve">isothermal process </t>
-  </si>
-  <si>
     <t xml:space="preserve">Stirling cycle uses a __________ as working fluids. </t>
   </si>
   <si>
@@ -731,58 +528,10 @@
     <t xml:space="preserve">outgoing flue gas </t>
   </si>
   <si>
-    <t xml:space="preserve">For the submerged plane surface, the point on the surface where the resultant force acts is called the </t>
-  </si>
-  <si>
-    <t xml:space="preserve">center of pressure </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In a compression ignition engine, the detonation occurs near the </t>
-  </si>
-  <si>
-    <t xml:space="preserve">beginning of combustion </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In a spark ignition engine, the detonation occurs near the </t>
-  </si>
-  <si>
-    <t xml:space="preserve">end of combustion </t>
-  </si>
-  <si>
     <t xml:space="preserve">Type of solid injection that use single pump supplies fuel under high pressure to a fuel header. </t>
   </si>
   <si>
     <t xml:space="preserve">Common rail injection </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil is atomized either by air blast or pressure jet at about </t>
-  </si>
-  <si>
-    <t xml:space="preserve">70 bar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of turbine used up to 300 m head. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deriaz turbine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In thermal power plant, induced draft fans are located at the </t>
-  </si>
-  <si>
-    <t xml:space="preserve">foot of the stack </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In thermal power plant, forced draft fans are installed at the </t>
-  </si>
-  <si>
-    <t xml:space="preserve">inlet of the preheater </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which of the following is NOT a material used for thermoelectric elements. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zinc telluride </t>
   </si>
   <si>
     <t xml:space="preserve">Needs only single pump regardless of number of heaters. </t>
@@ -858,6 +607,66 @@
   </si>
   <si>
     <t xml:space="preserve">incompressible substance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Stirling process the heat is added during </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isothermal process </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aircraft gas turbines operate at higher pressure ratio typically between </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 to 25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the submerged plane surface, the point on the surface where the resultant force acts is called the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">center of pressure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a compression ignition engine, the detonation occurs near the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">beginning of combustion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a spark ignition engine, the detonation occurs near the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">end of combustion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil is atomized either by air blast or pressure jet at about </t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 bar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of turbine used up to 300 m head. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deriaz turbine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In thermal power plant, induced draft fans are located at the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">foot of the stack </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In thermal power plant, forced draft fans are installed at the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inlet of the preheater </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following is NOT a material used for thermoelectric elements. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinc telluride </t>
   </si>
   <si>
     <t xml:space="preserve">The angle made by the helix of the thread (in a straight head) at the pitch diameter with a plabe perpendicular to the axis is called</t>
@@ -1016,7 +825,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,13 +863,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1080,12 +882,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1130,7 +926,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1167,23 +963,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1191,11 +983,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1450,8 +1238,8 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="2" sqref="C31 B31 C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="50" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1690,8 +1478,8 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="2" sqref="C31 B31 C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1890,292 +1678,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:XFD1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="2" sqref="C31 B31 D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="1" width="30.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="10.29"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:XFD1047"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="2" sqref="C31 B31 D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="50" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2206,90 +1712,90 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="10"/>
+        <v>87</v>
+      </c>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+        <v>93</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" s="4" customFormat="true" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="4" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2298,11 +1804,11 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2311,11 +1817,11 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="4" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2324,10 +1830,10 @@
     </row>
     <row r="12" s="1" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2338,11 +1844,11 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="4" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2350,11 +1856,11 @@
     </row>
     <row r="14" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="4" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2362,11 +1868,11 @@
     </row>
     <row r="15" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="4" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2374,11 +1880,11 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2386,20 +1892,20 @@
     </row>
     <row r="17" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="4" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="4" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2407,11 +1913,11 @@
     </row>
     <row r="19" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="4" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2419,11 +1925,11 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="4" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2431,11 +1937,11 @@
     </row>
     <row r="21" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="4" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2443,11 +1949,11 @@
     </row>
     <row r="22" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="4" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2455,11 +1961,11 @@
     </row>
     <row r="23" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="4" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2467,11 +1973,11 @@
     </row>
     <row r="24" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="4" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2479,11 +1985,11 @@
     </row>
     <row r="25" s="4" customFormat="true" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="4" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2491,11 +1997,11 @@
     </row>
     <row r="26" s="4" customFormat="true" ht="85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="4" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2503,11 +2009,11 @@
     </row>
     <row r="27" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="4" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2515,11 +2021,11 @@
     </row>
     <row r="28" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="4" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2527,210 +2033,112 @@
     </row>
     <row r="29" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="4" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>161</v>
+      <c r="A30" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="4" t="s">
-        <v>162</v>
+      <c r="C30" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="4" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="42" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="4" t="s">
-        <v>186</v>
-      </c>
     </row>
     <row r="43" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="4" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="44" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="4" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="45" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
-        <v>190</v>
-      </c>
+      <c r="A45" s="10"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="11" t="s">
-        <v>191</v>
-      </c>
+      <c r="C45" s="10"/>
     </row>
     <row r="46" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
-        <v>192</v>
-      </c>
+      <c r="A46" s="11"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="12" t="s">
-        <v>193</v>
-      </c>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="4" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="48" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
@@ -5605,138 +5013,6 @@
     </row>
     <row r="1003" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1003" s="1"/>
-    </row>
-    <row r="1004" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1004" s="1"/>
-    </row>
-    <row r="1005" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1005" s="1"/>
-    </row>
-    <row r="1006" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1006" s="1"/>
-    </row>
-    <row r="1007" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1007" s="1"/>
-    </row>
-    <row r="1008" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1008" s="1"/>
-    </row>
-    <row r="1009" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1009" s="1"/>
-    </row>
-    <row r="1010" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1010" s="1"/>
-    </row>
-    <row r="1011" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1011" s="1"/>
-    </row>
-    <row r="1012" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1012" s="1"/>
-    </row>
-    <row r="1013" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1013" s="1"/>
-    </row>
-    <row r="1014" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1014" s="1"/>
-    </row>
-    <row r="1015" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1015" s="1"/>
-    </row>
-    <row r="1016" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1016" s="1"/>
-    </row>
-    <row r="1017" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1017" s="1"/>
-    </row>
-    <row r="1018" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1018" s="1"/>
-    </row>
-    <row r="1019" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1019" s="1"/>
-    </row>
-    <row r="1020" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1020" s="1"/>
-    </row>
-    <row r="1021" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1021" s="1"/>
-    </row>
-    <row r="1022" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1022" s="1"/>
-    </row>
-    <row r="1023" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1023" s="1"/>
-    </row>
-    <row r="1024" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1024" s="1"/>
-    </row>
-    <row r="1025" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1025" s="1"/>
-    </row>
-    <row r="1026" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1026" s="1"/>
-    </row>
-    <row r="1027" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1027" s="1"/>
-    </row>
-    <row r="1028" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1028" s="1"/>
-    </row>
-    <row r="1029" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1029" s="1"/>
-    </row>
-    <row r="1030" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1030" s="1"/>
-    </row>
-    <row r="1031" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1031" s="1"/>
-    </row>
-    <row r="1032" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1032" s="1"/>
-    </row>
-    <row r="1033" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1033" s="1"/>
-    </row>
-    <row r="1034" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1034" s="1"/>
-    </row>
-    <row r="1035" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1035" s="1"/>
-    </row>
-    <row r="1036" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1036" s="1"/>
-    </row>
-    <row r="1037" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1037" s="1"/>
-    </row>
-    <row r="1038" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1038" s="1"/>
-    </row>
-    <row r="1039" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1039" s="1"/>
-    </row>
-    <row r="1040" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1040" s="1"/>
-    </row>
-    <row r="1041" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1041" s="1"/>
-    </row>
-    <row r="1042" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1042" s="1"/>
-    </row>
-    <row r="1043" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1043" s="1"/>
-    </row>
-    <row r="1044" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1044" s="1"/>
-    </row>
-    <row r="1045" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1045" s="1"/>
-    </row>
-    <row r="1046" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1046" s="1"/>
-    </row>
-    <row r="1047" s="4" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1047" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5749,22 +5025,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="2" sqref="C31 B31 B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="72" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="47.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="13" width="38.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="13" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="47.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="12" width="38.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="12" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5783,251 +5059,251 @@
     </row>
     <row r="2" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>198</v>
+      <c r="A3" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>214</v>
+      <c r="A11" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>226</v>
+      <c r="A17" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>236</v>
+      <c r="A22" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -6042,15 +5318,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="1" sqref="C31 B31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="108" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6060,46 +5336,46 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>3.75</v>
@@ -6107,7 +5383,7 @@
     </row>
     <row r="6" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>6000</v>
@@ -6115,39 +5391,39 @@
     </row>
     <row r="7" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>2</v>
@@ -6155,7 +5431,7 @@
     </row>
     <row r="12" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>40</v>
@@ -6163,15 +5439,15 @@
     </row>
     <row r="13" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>3050</v>
@@ -6179,71 +5455,71 @@
     </row>
     <row r="15" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>266</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>268</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>270</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>2.5</v>
@@ -6251,66 +5527,66 @@
     </row>
     <row r="24" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>-320</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>284</v>
+      <c r="A25" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>286</v>
+      <c r="A26" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>288</v>
+      <c r="A27" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="C28" s="16" t="n">
+      <c r="A28" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="3" t="n">
         <v>3050</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>266</v>
+      <c r="A29" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>290</v>
+      <c r="A30" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>292</v>
+      <c r="A31" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/flash_card_data.xlsx
+++ b/excel_files/flash_card_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" state="visible" r:id="rId3"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="252">
   <si>
     <t xml:space="preserve">Front</t>
   </si>
@@ -307,6 +307,60 @@
   </si>
   <si>
     <t xml:space="preserve">28.97 kg/kmol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla is a unit of which of the following? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnetic induction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which statement about a charge placed on a dielectric material is true? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The charge is confined to the region in which the charge was placed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you call those products or services that are directly used by people to satisfy their wants? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumer goods and services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the process of determining the value of certain property for specific reasons. Guess, what is this? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appraisal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you think is the provision in the contract that indicates the possible adjustment of material cost and labor cost? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escalatory clause </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What can you say about the present worth of all depreciation over the economic life of the item? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depreciation recovery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a regular polygon that has 27 diagonals? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonagon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you call a type of bond where the corporation’s owner name is recorded and the interest is paid periodically to the owners with their asking for it? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registered bond </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you think is the negotiation of wage rates, conditions of employment, etc. by representatives of the labor force and management? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collective bargaining </t>
   </si>
   <si>
     <t xml:space="preserve">The equation r = a(1 - cosѲ) is a
@@ -1234,7 +1288,7 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1474,7 +1528,7 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1674,10 +1728,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD1048576"/>
+  <dimension ref="A1:XFD1039"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="50" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1705,118 +1759,107 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="XFB5" s="4"/>
-      <c r="XFC5" s="4"/>
-      <c r="XFD5" s="4"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
@@ -1828,6 +1871,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
@@ -1839,17 +1883,21 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="XFB14" s="4"/>
+      <c r="XFC14" s="4"/>
+      <c r="XFD14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
@@ -1884,7 +1932,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>112</v>
       </c>
@@ -1895,16 +1943,13 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
@@ -1944,66 +1989,62 @@
         <v>122</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>124</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>126</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>128</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3" t="s">
+    <row r="27" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>130</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3" t="s">
+    <row r="28" customFormat="false" ht="85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>132</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2011,10 +2052,10 @@
     </row>
     <row r="29" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2022,94 +2063,152 @@
     </row>
     <row r="30" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
+    <row r="34" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
     <row r="38" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="A38" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
-      <c r="C39" s="10"/>
+      <c r="A39" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="968" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="XFB968" s="1"/>
-      <c r="XFC968" s="1"/>
-      <c r="XFD968" s="1"/>
-    </row>
-    <row r="969" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="XFB969" s="1"/>
-      <c r="XFC969" s="1"/>
-      <c r="XFD969" s="1"/>
-    </row>
-    <row r="970" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="XFB970" s="1"/>
-      <c r="XFC970" s="1"/>
-      <c r="XFD970" s="1"/>
-    </row>
-    <row r="971" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="XFB971" s="1"/>
-      <c r="XFC971" s="1"/>
-      <c r="XFD971" s="1"/>
-    </row>
-    <row r="972" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="XFB972" s="1"/>
-      <c r="XFC972" s="1"/>
-      <c r="XFD972" s="1"/>
-    </row>
-    <row r="973" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="XFB973" s="1"/>
-      <c r="XFC973" s="1"/>
-      <c r="XFD973" s="1"/>
-    </row>
-    <row r="974" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="XFB974" s="1"/>
-      <c r="XFC974" s="1"/>
-      <c r="XFD974" s="1"/>
-    </row>
-    <row r="975" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="XFB975" s="1"/>
-      <c r="XFC975" s="1"/>
-      <c r="XFD975" s="1"/>
-    </row>
-    <row r="976" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="XFB976" s="1"/>
-      <c r="XFC976" s="1"/>
-      <c r="XFD976" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9"/>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10"/>
+      <c r="C48" s="10"/>
+    </row>
+    <row r="50" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="977" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="XFB977" s="1"/>
@@ -2381,13 +2480,51 @@
       <c r="XFC1030" s="1"/>
       <c r="XFD1030" s="1"/>
     </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1031" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XFB1031" s="1"/>
+      <c r="XFC1031" s="1"/>
+      <c r="XFD1031" s="1"/>
+    </row>
+    <row r="1032" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XFB1032" s="1"/>
+      <c r="XFC1032" s="1"/>
+      <c r="XFD1032" s="1"/>
+    </row>
+    <row r="1033" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XFB1033" s="1"/>
+      <c r="XFC1033" s="1"/>
+      <c r="XFD1033" s="1"/>
+    </row>
+    <row r="1034" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XFB1034" s="1"/>
+      <c r="XFC1034" s="1"/>
+      <c r="XFD1034" s="1"/>
+    </row>
+    <row r="1035" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XFB1035" s="1"/>
+      <c r="XFC1035" s="1"/>
+      <c r="XFD1035" s="1"/>
+    </row>
+    <row r="1036" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XFB1036" s="1"/>
+      <c r="XFC1036" s="1"/>
+      <c r="XFD1036" s="1"/>
+    </row>
+    <row r="1037" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XFB1037" s="1"/>
+      <c r="XFC1037" s="1"/>
+      <c r="XFD1037" s="1"/>
+    </row>
+    <row r="1038" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XFB1038" s="1"/>
+      <c r="XFC1038" s="1"/>
+      <c r="XFD1038" s="1"/>
+    </row>
+    <row r="1039" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XFB1039" s="1"/>
+      <c r="XFC1039" s="1"/>
+      <c r="XFD1039" s="1"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2406,7 +2543,7 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2433,251 +2570,251 @@
     </row>
     <row r="2" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2699,7 +2836,7 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -2725,31 +2862,31 @@
     </row>
     <row r="2" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>3.75</v>
@@ -2757,7 +2894,7 @@
     </row>
     <row r="6" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>6000</v>
@@ -2765,39 +2902,39 @@
     </row>
     <row r="7" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>2</v>
@@ -2805,7 +2942,7 @@
     </row>
     <row r="12" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>40</v>
@@ -2813,15 +2950,15 @@
     </row>
     <row r="13" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>3050</v>
@@ -2829,71 +2966,71 @@
     </row>
     <row r="15" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>2.5</v>
@@ -2901,7 +3038,7 @@
     </row>
     <row r="24" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>-320</v>
@@ -2909,31 +3046,31 @@
     </row>
     <row r="25" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>3050</v>
@@ -2941,26 +3078,26 @@
     </row>
     <row r="29" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
